--- a/liquibase-schema.xlsx
+++ b/liquibase-schema.xlsx
@@ -137,14 +137,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -230,7 +232,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,6 +254,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -337,7 +343,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -389,7 +395,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -400,7 +406,7 @@
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -419,7 +425,7 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -457,7 +463,7 @@
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -468,7 +474,7 @@
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -504,7 +510,7 @@
       <c r="C18" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -518,7 +524,7 @@
       <c r="C19" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -532,7 +538,7 @@
       <c r="C20" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -543,7 +549,7 @@
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -554,7 +560,7 @@
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -576,7 +582,7 @@
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -587,7 +593,7 @@
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -598,7 +604,7 @@
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -623,7 +629,7 @@
       <c r="C30" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -637,7 +643,7 @@
       <c r="C31" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -651,7 +657,7 @@
       <c r="C32" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -662,7 +668,7 @@
       <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -673,7 +679,7 @@
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -698,7 +704,7 @@
       <c r="C37" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="6" t="s">
         <v>11</v>
       </c>
     </row>
